--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuxjtueducn-my.sharepoint.com/personal/gwy867718012_stu_xjtu_edu_cn/Documents/2021/半自动/git_code/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_045CB584CD0CF14C94F96617191D6F963802127C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CD8DFB-2379-442E-A217-B72A0BD991FE}"/>
   <bookViews>
-    <workbookView windowWidth="17374" windowHeight="8880"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="设备参数" sheetId="1" r:id="rId1"/>
@@ -61,7 +67,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/kW</t>
     </r>
@@ -85,7 +91,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0</t>
     </r>
@@ -145,7 +151,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/kg</t>
     </r>
@@ -175,7 +181,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>COP</t>
     </r>
@@ -196,7 +202,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>COP</t>
     </r>
@@ -219,7 +225,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>COP</t>
     </r>
@@ -239,7 +245,7 @@
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>COP</t>
     </r>
@@ -272,7 +278,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0</t>
     </r>
@@ -338,7 +344,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/</t>
     </r>
@@ -465,7 +471,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -483,7 +489,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1.0291</t>
     </r>
@@ -501,7 +507,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/kWh</t>
     </r>
@@ -519,7 +525,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.6907</t>
     </r>
@@ -537,7 +543,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.3315</t>
     </r>
@@ -555,7 +561,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1-10</t>
     </r>
@@ -573,7 +579,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.9993</t>
     </r>
@@ -591,7 +597,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.6707</t>
     </r>
@@ -609,7 +615,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.3219</t>
     </r>
@@ -627,7 +633,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>20-35</t>
     </r>
@@ -645,7 +651,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.9919</t>
     </r>
@@ -663,7 +669,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.6657</t>
     </r>
@@ -681,7 +687,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.3195</t>
     </r>
@@ -699,7 +705,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>35</t>
     </r>
@@ -717,7 +723,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.9695</t>
     </r>
@@ -735,7 +741,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.6507</t>
     </r>
@@ -753,7 +759,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.3123</t>
     </r>
@@ -843,9 +849,6 @@
     <t>是否用氢</t>
   </si>
   <si>
-    <t>否</t>
-  </si>
-  <si>
     <t>是/否</t>
   </si>
   <si>
@@ -918,7 +921,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>12</t>
     </r>
@@ -936,7 +939,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -954,7 +957,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -972,7 +975,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1009,7 +1012,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>6</t>
     </r>
@@ -1027,7 +1030,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1064,7 +1067,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1161,7 +1164,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>-1.5</t>
     </r>
@@ -1187,7 +1190,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>0.4</t>
     </r>
@@ -1196,7 +1199,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -1210,7 +1213,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>34.3</t>
     </r>
@@ -1219,7 +1222,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -1233,7 +1236,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>26.0</t>
     </r>
@@ -1242,7 +1245,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>℃</t>
     </r>
@@ -1258,19 +1261,17 @@
   </si>
   <si>
     <t>0.5m/s</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1295,7 +1296,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1370,163 +1371,19 @@
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1534,202 +1391,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1822,255 +1507,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2095,167 +1538,132 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2542,1003 +1950,1000 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.3603603603604" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.2702702702703" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.4504504504505" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7477477477477" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="17" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.15" customHeight="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:5" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="16.2" spans="1:5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="22">
         <v>1.4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" ht="16.2" spans="1:5">
-      <c r="A3" s="30"/>
-      <c r="B3" s="31" t="s">
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="25">
         <v>1000</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" ht="16.2" spans="1:5">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31" t="s">
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" ht="16.2" spans="1:5">
-      <c r="A5" s="30" t="s">
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="25">
         <v>15</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" ht="16.2" spans="1:5">
-      <c r="A6" s="30"/>
-      <c r="B6" s="31" t="s">
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32">
-        <v>16.6</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="C6" s="25">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" ht="15.75" spans="1:5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31" t="s">
+      <c r="E6" s="40"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="25">
         <v>0.95</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" ht="15.75" spans="1:5">
-      <c r="A8" s="30"/>
-      <c r="B8" s="31" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="25">
         <v>10000</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" ht="16.2" spans="1:5">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31" t="s">
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" ht="28.2" spans="1:5">
-      <c r="A10" s="30" t="s">
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="25">
         <v>82</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" ht="28.2" spans="1:5">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31" t="s">
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="25">
         <v>45</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" ht="16.2" spans="1:5">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31" t="s">
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="29">
         <v>500</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" ht="15.75" spans="1:5">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31" t="s">
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="25">
         <v>20</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" ht="15.75" spans="1:5">
-      <c r="A14" s="30" t="s">
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="25">
         <v>0.9</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" ht="16.2" spans="1:5">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31" t="s">
+      <c r="D14" s="26"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="29">
         <v>1000</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" ht="15.75" spans="1:5">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31" t="s">
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="25">
         <v>20</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" ht="16.2" spans="1:5">
-      <c r="A17" s="30" t="s">
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="29">
         <v>3</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" ht="16.2" spans="1:5">
-      <c r="A18" s="30"/>
-      <c r="B18" s="33" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A18" s="35"/>
+      <c r="B18" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="29">
         <v>4</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" ht="16.2" spans="1:5">
-      <c r="A19" s="30"/>
-      <c r="B19" s="33" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A19" s="35"/>
+      <c r="B19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="29">
         <v>3000</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" ht="15.75" spans="1:5">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33" t="s">
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="25">
         <v>15</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" ht="15.75" spans="1:5">
-      <c r="A21" s="30" t="s">
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="25">
         <v>3.54</v>
       </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" ht="16.15" spans="1:5">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="29">
         <v>4</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" ht="16.2" spans="1:5">
-      <c r="A23" s="30"/>
-      <c r="B23" s="31" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="29">
         <v>4000</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" ht="15.75" spans="1:5">
-      <c r="A24" s="34"/>
-      <c r="B24" s="31" t="s">
+      <c r="E23" s="40"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="36"/>
+      <c r="B24" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="25">
         <v>15</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" ht="30.4" customHeight="1" spans="1:5">
-      <c r="A25" s="30" t="s">
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" ht="15.75" spans="1:5">
-      <c r="A26" s="30"/>
-      <c r="B26" s="39" t="s">
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" ht="16.2" spans="1:5">
-      <c r="A27" s="34"/>
-      <c r="B27" s="31" t="s">
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" ht="15.75" spans="1:5">
-      <c r="A28" s="30" t="s">
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="25">
         <v>21</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" ht="15.75" spans="1:5">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33" t="s">
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" ht="16.2" spans="1:5">
-      <c r="A30" s="30"/>
-      <c r="B30" s="33" t="s">
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="29">
         <v>500</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" ht="15.75" spans="1:5">
-      <c r="A31" s="34"/>
-      <c r="B31" s="33" t="s">
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="32">
+      <c r="C31" s="25">
         <v>15</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" ht="16.2" spans="1:5">
-      <c r="A32" s="30" t="s">
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="29">
         <v>3000</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" ht="15.75" spans="1:5">
-      <c r="A33" s="30"/>
-      <c r="B33" s="33" t="s">
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35"/>
+      <c r="B33" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="25">
         <v>15</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="29"/>
-    </row>
-    <row r="34" ht="30.75" spans="1:5">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33" t="s">
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="25"/>
+      <c r="D34" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" ht="15.75" spans="1:5">
-      <c r="A35" s="30" t="s">
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="32">
+      <c r="C35" s="25">
         <v>4000</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" ht="15.75" spans="1:5">
-      <c r="A36" s="30"/>
-      <c r="B36" s="33" t="s">
+      <c r="E35" s="40"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="32">
+      <c r="C36" s="25">
         <v>10</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" ht="16.2" spans="1:5">
-      <c r="A37" s="34"/>
-      <c r="B37" s="33" t="s">
+      <c r="E36" s="40"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="36"/>
+      <c r="B37" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="29">
         <v>1000</v>
       </c>
-      <c r="D37" s="36" t="s">
+      <c r="D37" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" ht="16.2" spans="1:5">
-      <c r="A38" s="40" t="s">
+      <c r="E37" s="40"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="27">
+      <c r="C38" s="22">
         <v>1000</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" ht="16.15" spans="1:5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="31" t="s">
+      <c r="E38" s="40"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="27">
+      <c r="C39" s="22">
         <v>20</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" ht="16.2" spans="1:5">
-      <c r="A40" s="30" t="s">
+      <c r="E39" s="40"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="25">
         <v>800</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" ht="15.75" spans="1:5">
-      <c r="A41" s="34"/>
-      <c r="B41" s="41" t="s">
+      <c r="E40" s="40"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="25">
         <v>20</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="29"/>
+      <c r="E41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E1:E41"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E1:E41"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.4504504504505" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.6666666666667" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.3423423423423" style="13" customWidth="1"/>
-    <col min="4" max="4" width="9" style="14"/>
-    <col min="5" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="26.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="59.6328125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" ht="97" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" ht="15" spans="1:4">
-      <c r="A3" s="15" t="s">
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" ht="60" spans="1:4">
-      <c r="A4" s="9" t="s">
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" ht="47" customHeight="1" spans="1:4">
-      <c r="A5" s="9" t="s">
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" ht="92.55" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" spans="1:4" ht="96" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" ht="15" spans="1:4">
-      <c r="A7" s="15" t="s">
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" ht="165" spans="1:4">
-      <c r="A8" s="15" t="s">
+      <c r="D7" s="42"/>
+    </row>
+    <row r="8" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" ht="15" spans="1:4">
-      <c r="A9" s="15" t="s">
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" ht="15" spans="1:4">
-      <c r="A10" s="15" t="s">
+      <c r="D9" s="42"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" ht="15" spans="1:4">
-      <c r="A11" s="15" t="s">
+      <c r="D10" s="42"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>30</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" ht="75" spans="1:4">
-      <c r="A12" s="9" t="s">
+      <c r="D11" s="42"/>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" ht="75" spans="1:4">
-      <c r="A13" s="9" t="s">
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" ht="14.15" spans="1:4">
-      <c r="A14" s="12" t="s">
+      <c r="D13" s="42"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="17"/>
+      <c r="D14" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D14"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.0900900900901" style="6" customWidth="1"/>
+    <col min="1" max="1" width="15.08984375" style="6" customWidth="1"/>
     <col min="2" max="2" width="65" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.2522522522523" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.26953125" style="6" customWidth="1"/>
     <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" ht="105" customHeight="1" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="44"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10">
-        <v>8.9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="10">
-        <v>27.7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="9">
+        <v>-12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="44"/>
+    </row>
+    <row r="6" spans="1:4" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="10">
-        <v>-12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" ht="89" customHeight="1" spans="1:4">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="D6" s="44"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="44"/>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" ht="53" customHeight="1" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="44"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>106</v>
-      </c>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="D9" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D9"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90990990990991" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.0900900900901" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.4504504504504" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90990990990991" style="1"/>
+    <col min="1" max="1" width="34.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.453125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:2">
+    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="2" ht="15.45" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" ht="15.45" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" ht="15.45" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="5" ht="15.4" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="B5" s="5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:2">
+    <row r="6" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="7" ht="19" customHeight="1" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="8" ht="18" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" ht="15.45" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="4" t="s">
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="10" ht="15.45" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -5,362 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stuxjtueducn-my.sharepoint.com/personal/gwy867718012_stu_xjtu_edu_cn/Documents/2021/半自动/git_code/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - stu.xjtu.edu.cn\2021\半自动\git_code\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_045CB584CD0CF14C94F96617191D6F963802127C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0CD8DFB-2379-442E-A217-B72A0BD991FE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F606C2-B8D5-43F4-870E-B239871530A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="设备参数" sheetId="1" r:id="rId1"/>
-    <sheet name="园区文字" sheetId="2" r:id="rId2"/>
-    <sheet name="城市文字" sheetId="3" r:id="rId3"/>
-    <sheet name="供暖规范" sheetId="4" r:id="rId4"/>
+    <sheet name="园区文字" sheetId="2" r:id="rId1"/>
+    <sheet name="城市文字" sheetId="3" r:id="rId2"/>
+    <sheet name="供暖规范" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="126">
-  <si>
-    <t>设备名称</t>
-  </si>
-  <si>
-    <t>参数名称</t>
-  </si>
-  <si>
-    <t>参数值</t>
-  </si>
-  <si>
-    <t>单位</t>
-  </si>
-  <si>
-    <t>园区内不用到的设备的参数值空着不填</t>
-  </si>
-  <si>
-    <t>氢压机参数</t>
-  </si>
-  <si>
-    <t>耗电系数</t>
-  </si>
-  <si>
-    <t>kWh/kg</t>
-  </si>
-  <si>
-    <t>投资单价</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/kW</t>
-    </r>
-  </si>
-  <si>
-    <t>使用年限</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>燃料电池</t>
-  </si>
-  <si>
-    <t>电堆氢转电系数</t>
-  </si>
-  <si>
-    <t>电堆氢转热系数</t>
-  </si>
-  <si>
-    <t>热交换器效率</t>
-  </si>
-  <si>
-    <t>元/kW</t>
-  </si>
-  <si>
-    <t>热水罐参数</t>
-  </si>
-  <si>
-    <t>热水罐储水温度上限</t>
-  </si>
-  <si>
-    <t>℃</t>
-  </si>
-  <si>
-    <t>热水罐储水温度下限</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/kg</t>
-    </r>
-  </si>
-  <si>
-    <t>电锅炉参数</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>空气源热泵参数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>制热</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>制冷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COP</t>
-    </r>
-  </si>
-  <si>
-    <t>地源热泵参数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制热</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>制冷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>COP</t>
-    </r>
-  </si>
-  <si>
-    <t>浅层地热井</t>
-  </si>
-  <si>
-    <t>最大规划个数</t>
-  </si>
-  <si>
-    <t>个</t>
-  </si>
-  <si>
-    <t>元/个</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>冷水罐参数</t>
-  </si>
-  <si>
-    <t>储水温度上限</t>
-  </si>
-  <si>
-    <t>储水温度下限</t>
-  </si>
-  <si>
-    <t>投资成本</t>
-  </si>
-  <si>
-    <t>储氢罐</t>
-  </si>
-  <si>
-    <t>储氢罐规划容量上限</t>
-  </si>
-  <si>
-    <t>kg</t>
-  </si>
-  <si>
-    <t>电解槽</t>
-  </si>
-  <si>
-    <t>元/Nm3·h-1</t>
-  </si>
-  <si>
-    <t>容量上限</t>
-  </si>
-  <si>
-    <t>Nm3·h-1</t>
-  </si>
-  <si>
-    <t>光伏板</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>m2</t>
-    </r>
-  </si>
-  <si>
-    <t>太阳能集热器</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>园区名称</t>
   </si>
@@ -1083,6 +745,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不带主语</t>
     </r>
     <r>
@@ -1264,14 +934,14 @@
   </si>
   <si>
     <t>是</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,40 +1026,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1414,95 +1054,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1513,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1565,78 +1120,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1649,7 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1956,582 +1442,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="17" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="26.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="59.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="9" style="13"/>
+    <col min="5" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="96.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="22">
-        <v>1.4</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="40"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25">
-        <v>1000</v>
-      </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25">
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="25">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="24" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="25">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="25">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="25">
-        <v>82</v>
-      </c>
-      <c r="D10" s="26" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="24" t="s">
+      <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="25">
-        <v>45</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="29">
-        <v>500</v>
-      </c>
-      <c r="D12" s="26" t="s">
+      <c r="C8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="25">
-        <v>20</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="25">
-        <v>0.9</v>
-      </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="25">
-        <v>20</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="29">
-        <v>3</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="26" t="s">
+      <c r="B10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="29">
-        <v>4</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="40"/>
-    </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="25">
-        <v>15</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="25">
-        <v>3.54</v>
-      </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="24" t="s">
+      <c r="B11" s="14">
         <v>30</v>
       </c>
-      <c r="C22" s="29">
-        <v>4</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="29">
-        <v>4000</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="40"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="25">
-        <v>15</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:5" ht="30.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
+      <c r="B13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+      <c r="B14" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="25">
-        <v>21</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="25">
-        <v>4</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="40"/>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="29">
-        <v>500</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="40"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
-      <c r="B31" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="25">
-        <v>15</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="40"/>
-    </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="29">
-        <v>3000</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="40"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="25">
-        <v>15</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="40"/>
-    </row>
-    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="36"/>
-      <c r="B34" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="40"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="25">
-        <v>4000</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="40"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="25">
-        <v>10</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="40"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="36"/>
-      <c r="B37" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="29">
-        <v>1000</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="40"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="22">
-        <v>1000</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="40"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="22">
-        <v>20</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="40"/>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="25">
-        <v>800</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="40"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="25">
-        <v>20</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="40"/>
+      <c r="D14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E1:E41"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A20"/>
+  <mergeCells count="1">
+    <mergeCell ref="D1:D14"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2539,184 +1627,123 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="59.6328125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="9" style="13"/>
-    <col min="5" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="15.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="65" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.25" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="9">
+        <v>27.7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-12</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="C8" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="97" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="42"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="42"/>
-    </row>
-    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:4" ht="47" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="42"/>
-    </row>
-    <row r="6" spans="1:4" ht="96" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="42"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="42"/>
-    </row>
-    <row r="8" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="42"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="42"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="42"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="14">
-        <v>30</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="42"/>
-    </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="42"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="42"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:D14"/>
+    <mergeCell ref="D1:D9"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2724,225 +1751,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="65" style="6" customWidth="1"/>
-    <col min="3" max="3" width="37.26953125" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="9">
-        <v>8.9</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="44"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="9">
-        <v>27.7</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="44"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="9">
-        <v>-12</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="44"/>
-    </row>
-    <row r="6" spans="1:4" ht="89" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="44"/>
-    </row>
-    <row r="8" spans="1:4" ht="53" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D8" s="44"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:D9"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.453125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5">
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - stu.xjtu.edu.cn\2021\半自动\git_code\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5212147C-E427-4844-BFE4-C92724D0F8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D63D20-0F42-4F3A-9509-A37BF4534F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="3735" windowWidth="21600" windowHeight="11115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5985" yWindow="2670" windowWidth="21600" windowHeight="11115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="园区文字" sheetId="2" r:id="rId1"/>
@@ -148,15 +148,9 @@
     <t>供能对象描述</t>
   </si>
   <si>
-    <t>创新创业产业园整体布局上形成“一轴两心三区”，其中“三区”为三个供能分区，即综合区、工业区、宿舍区。产业园约20万方大小，集中入驻企业7-8家，以电子制造业为主，年耗电量预估&gt;200万千瓦时。目前园区内共有13个变压器，总供电容量为8240千瓦。</t>
-  </si>
-  <si>
     <t>用能方案描述</t>
   </si>
   <si>
-    <t>选择工业园区、社区为试点，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行。</t>
-  </si>
-  <si>
     <t>是否用氢</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
   </si>
   <si>
     <t>北温带</t>
-  </si>
-  <si>
-    <t>采暖供冷期描述</t>
   </si>
   <si>
     <r>
@@ -434,10 +425,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>北纬30°17′，东经109°28′</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>-16.6</t>
     </r>
@@ -481,6 +468,22 @@
       </rPr>
       <t>℃</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新创业产业园整体布局上形成“一轴两心三区”，其中“三区”为三个供能分区，即综合区、工业区、宿舍区。产业园约20万方大小，集中入驻企业7-8家，以电子制造业为主，年耗电量预估&gt;200万千瓦时。目前园区内共有13个变压器，总供电容量为8240千瓦。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择工业园区、社区为试点，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>北纬40°67′，东经110°27′</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>采暖供冷期描述</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -488,7 +491,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +624,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -645,7 +656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,15 +702,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -712,17 +732,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,7 +1045,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1047,13 +1061,13 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>55</v>
+      <c r="B1" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1061,58 +1075,58 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="19"/>
+      <c r="B2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>56</v>
+      <c r="B3" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>57</v>
+      <c r="B4" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>60</v>
+      <c r="B5" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>58</v>
+      <c r="B6" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -1121,43 +1135,43 @@
       <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>59</v>
+      <c r="B8" s="19" t="s">
+        <v>56</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>62</v>
+      <c r="B9" s="19" t="s">
+        <v>59</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>61</v>
+      <c r="B10" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
@@ -1169,37 +1183,37 @@
       <c r="C11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="19"/>
+      <c r="B12" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>54</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="19"/>
+        <v>25</v>
+      </c>
+      <c r="D14" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1216,7 +1230,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1229,101 +1243,101 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>63</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="20" t="s">
-        <v>29</v>
+      <c r="D1" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>64</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="24"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8">
         <v>7.2</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="21"/>
+      <c r="D3" s="24"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="8">
         <v>27.7</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="21"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="8">
         <v>-16.600000000000001</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="21"/>
+      <c r="D5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>67</v>
+        <v>38</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="21"/>
+      <c r="D9" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1340,7 +1354,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1352,39 +1366,39 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>69</v>
+        <v>42</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>0.54</v>
@@ -1392,42 +1406,42 @@
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - stu.xjtu.edu.cn\2021\半自动\git_code\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\项目\2022能源站规划运行报告半自动生成软件\git_code\git_code\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D63D20-0F42-4F3A-9509-A37BF4534F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73168CB-4E2B-4875-AB0C-7BB2B999B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2670" windowWidth="21600" windowHeight="11115" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="园区文字" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>园区名称</t>
   </si>
@@ -40,6 +40,9 @@
     <t>园区规范</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>若无园区规范，填无</t>
   </si>
   <si>
@@ -124,18 +127,27 @@
     <t>用能政策</t>
   </si>
   <si>
+    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案。</t>
+  </si>
+  <si>
     <t>若无相关资料，填空格</t>
   </si>
   <si>
     <t>地热资源评价</t>
   </si>
   <si>
+    <t>达茂旗属于夏热冬冷气候区。</t>
+  </si>
+  <si>
     <t>若不适用地热，填无</t>
   </si>
   <si>
     <t>卖电许可</t>
   </si>
   <si>
+    <t>允许</t>
+  </si>
+  <si>
     <t>允许/不允许</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>是否用氢</t>
   </si>
   <si>
+    <t>是</t>
+  </si>
+  <si>
     <t>是/否</t>
   </si>
   <si>
@@ -187,7 +202,7 @@
     <t>气候分区</t>
   </si>
   <si>
-    <t>北温带</t>
+    <t>采暖供冷期描述</t>
   </si>
   <si>
     <r>
@@ -234,6 +249,173 @@
     <t>冬季空气调节室外计算温度：</t>
   </si>
   <si>
+    <t>夏季空调室外计算干球温度：</t>
+  </si>
+  <si>
+    <t>夏季空调室外计算湿球温度：</t>
+  </si>
+  <si>
+    <t>冬季通风室外平均风速：</t>
+  </si>
+  <si>
+    <t>夏季通风室外平均风速：</t>
+  </si>
+  <si>
+    <t>麻城石材循环经济产业园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中部(麻城)石材产业园开发有限公司是麻城市政府重点招商引资项目，2013年入驻麻城，采取以商招商方式，承建：中部（麻城）石材循环经济产业园，2014年省发改委重点建设项目。该项目由麻城市政府委托湖北华建石材工艺有限公司整体开发，中国民生银行参股，由该公司进行统一规划，统一招商、统一推广、统一管理。
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>占地2.5万亩，目前建成1.5万亩。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>园区东依</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>白鸭山，西至麻白公路，南临麻溪河，北达塘凌公路</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>工业用电：谷时用电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kWh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，峰时用电</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/kWh</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前年用电量13-16亿度，预估未来3-5年，每年用电量增长20%。目前由麻城火电厂、大电网供电，周围有3个变电站。目前没有集中供热供冷，但有供热供冷需求。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部（麻城）石材循环经济产业园区，因园区太大、整体能耗太高，相当于一个小型的城区。计划在产业园里选取一块有代表意义的厂区先建立示范区，建设零碳分布式智慧能源中心，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行，打造零碳产业园区示范项目，再逐步推广。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻城市</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻城市，湖北省辖县级市，由黄冈市代管。地处湖北省东北部，黄冈市北部，长江中游北岸大别山中段南麓，鄂豫皖三省交界处。 武汉城市圈重要组成部分。麻城版图面积3747平方公里，辖19个乡镇办、1个省级经济开发区和1个国家级湿地公园。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻城气候兼南方和北方的某些特点，为南北兼有的气候特征，属亚热带大陆性湿润季风气候，江淮小气候区，山区、丘陵、平原各异。</t>
+  </si>
+  <si>
+    <t>亚热带</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每年采暖期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个月（</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -241,25 +423,17 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-  </si>
-  <si>
-    <t>夏季空调室外计算干球温度：</t>
-  </si>
-  <si>
-    <t>夏季空调室外计算湿球温度：</t>
-  </si>
-  <si>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -267,84 +441,35 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>26.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-  </si>
-  <si>
-    <t>冬季通风室外平均风速：</t>
-  </si>
-  <si>
-    <t>夏季通风室外平均风速：</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>包头市石拐区零碳大数据园区</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>建筑面积5万平米（3栋楼），楼顶1万平米。建设零碳能源中心，用地预计10亩-30亩左右，离大数据心约200-1000米。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>电价0.44元；水价4.5元，天然气2.35元；</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>周边具备集中供热，给排水等市政条件。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>允许</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>包头市属于温带大陆气候区。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>包头市</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>石拐区是内蒙古自治区包头市的一个市辖区，石拐是蒙古语“喜桂图”的音译，其意为“有森林的地方”，位于包头城区东北部，地理坐标为北纬40°37′~40°45′；东经110°14′~110°28′，西南与九原区毗连,南与东河区相邻，西与青山区接壤。被评为第一批国家智慧城市试点地区。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>石拐区属温带大陆干燥气候。气候特征冬长而寒，夏短而热，降水集中，小气候为迎风多雨区，全年降水量375.7毫米，为包头市多雨区。四季温差明显，昼夜温差大，干旱少雨。春末夏初，受风沙影响。夏短炎热，受东南季风影响。秋季凉爽，雨后浓雾。冬长寒冷，受西北季风影响。日照长，无霜期短。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每年采暖期6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个月（</t>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日～次年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
     </r>
     <r>
       <rPr>
@@ -353,24 +478,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>15</t>
     </r>
     <r>
@@ -380,118 +487,173 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>日～次年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日）</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>内蒙古省</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-16.6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+      <t>日）。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019.5hPa</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>998.8hPa</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>北纬3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>′，东经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1′</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>901.2hPa</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>889.1hPa</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.4m/s</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.9m/s</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>27.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-2.5℃</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>℃</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>创新创业产业园整体布局上形成“一轴两心三区”，其中“三区”为三个供能分区，即综合区、工业区、宿舍区。产业园约20万方大小，集中入驻企业7-8家，以电子制造业为主，年耗电量预估&gt;200万千瓦时。目前园区内共有13个变压器，总供电容量为8240千瓦。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择工业园区、社区为试点，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>北纬40°67′，东经110°27′</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>采暖供冷期描述</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1m/s</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0m/s</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,18 +740,20 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -611,6 +775,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -622,16 +807,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -656,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -705,38 +889,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1232,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C15" sqref="C13:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1061,13 +1248,13 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>52</v>
+      <c r="B1" s="20" t="s">
+        <v>54</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1075,153 +1262,153 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="22"/>
+      <c r="B2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>53</v>
+      <c r="B3" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>54</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="22"/>
+        <v>8</v>
+      </c>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>55</v>
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="22"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>56</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>58</v>
+        <v>21</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13">
         <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="22"/>
-    </row>
-    <row r="13" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>60</v>
+      </c>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>51</v>
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="D14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D14"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1229,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1243,107 +1430,107 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="23" t="s">
-        <v>27</v>
+      <c r="D1" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>61</v>
+        <v>33</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B3" s="8">
-        <v>7.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="24"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B4" s="8">
-        <v>27.7</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="24"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B5" s="8">
-        <v>-16.600000000000001</v>
+        <v>-12</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="24"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="24"/>
+        <v>39</v>
+      </c>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>64</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>63</v>
+      <c r="A8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>64</v>
+        <v>43</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="24"/>
+      <c r="D9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D9"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1354,7 +1541,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1366,86 +1553,86 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>73</v>
+        <v>44</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B5" s="4">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PhD\项目\2022能源站规划运行报告半自动生成软件\git_code\git_code\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - stu.xjtu.edu.cn\2021\半自动\git_code\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73168CB-4E2B-4875-AB0C-7BB2B999B00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD3733-4B7A-4739-8FA4-611C5DB25C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="园区文字" sheetId="2" r:id="rId1"/>
     <sheet name="城市文字" sheetId="3" r:id="rId2"/>
     <sheet name="供暖规范" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -54,6 +54,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -63,6 +64,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -78,6 +80,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -87,6 +90,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -102,6 +106,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -111,6 +116,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,24 +127,15 @@
     <t>制氢潜力</t>
   </si>
   <si>
-    <t>该地区制氢潜力优秀。</t>
-  </si>
-  <si>
     <t>用能政策</t>
   </si>
   <si>
-    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案。</t>
-  </si>
-  <si>
     <t>若无相关资料，填空格</t>
   </si>
   <si>
     <t>地热资源评价</t>
   </si>
   <si>
-    <t>达茂旗属于夏热冬冷气候区。</t>
-  </si>
-  <si>
     <t>若不适用地热，填无</t>
   </si>
   <si>
@@ -211,6 +208,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,6 +219,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -412,6 +411,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>个月（</t>
@@ -430,6 +430,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -448,6 +449,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日～次年</t>
@@ -467,6 +469,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -485,6 +488,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日）。</t>
@@ -518,6 +522,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>°</t>
@@ -537,6 +542,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>′，东经</t>
@@ -556,6 +562,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>°</t>
@@ -575,6 +582,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1′</t>
@@ -590,6 +598,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>℃</t>
@@ -646,6 +655,18 @@
   </si>
   <si>
     <t>2.0m/s</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>该地区制氢潜力优秀</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -665,6 +686,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -672,6 +694,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -685,6 +708,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -692,6 +716,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -699,6 +724,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -707,18 +733,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -727,6 +756,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -734,6 +764,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -889,6 +920,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -900,30 +955,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C13:C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1248,13 +1279,13 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>54</v>
+      <c r="B1" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1262,10 +1293,10 @@
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="17"/>
+      <c r="B2" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="25"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
@@ -1277,130 +1308,130 @@
       <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22" t="s">
-        <v>56</v>
+      <c r="B4" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>57</v>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>58</v>
+      <c r="B6" s="20" t="s">
+        <v>55</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="17"/>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="17"/>
+        <v>17</v>
+      </c>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="17"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="13">
         <v>30</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="17"/>
+        <v>22</v>
+      </c>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="17"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1424,107 +1455,107 @@
   <cols>
     <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
     <col min="2" max="2" width="65" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="18" t="s">
-        <v>32</v>
+      <c r="D1" s="26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3" s="8">
         <v>16.100000000000001</v>
       </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="19"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B4" s="8">
         <v>39.799999999999997</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="19"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" s="8">
         <v>-12</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="19"/>
+      <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="27"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="19"/>
+      <c r="D9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1540,7 +1571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -1553,39 +1584,39 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="4">
         <v>0.74</v>
@@ -1593,42 +1624,42 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/doc/配置文档数据.xlsx
+++ b/doc/配置文档数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - stu.xjtu.edu.cn\2021\半自动\git_code\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guo/Library/CloudStorage/OneDrive-stu.xjtu.edu.cn/2021/半自动/git_code/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BFD3733-4B7A-4739-8FA4-611C5DB25C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEAEECC-CE6C-A842-A19D-2A29D62C59CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="园区文字" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>园区名称</t>
   </si>
@@ -37,6 +37,10 @@
     <t>园区描述</t>
   </si>
   <si>
+    <t xml:space="preserve">达茂旗零碳博物馆正在建设中，为全国第一个展示能源过去现在和未来，诠释碳中和概念的能源博物馆
+</t>
+  </si>
+  <si>
     <t>园区规范</t>
   </si>
   <si>
@@ -75,6 +79,9 @@
     <t>位置描述</t>
   </si>
   <si>
+    <t xml:space="preserve">地处中国北疆达尔罕茂明安联合旗 </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -101,6 +108,9 @@
     <t>电价描述</t>
   </si>
   <si>
+    <t>为充分考虑蒙西电网新能源发电出力波动、净负荷曲线变化特性，根据电力供需状况和季节负荷特性，将每年1-5月、9-12月划分为大风季，6-8月划分为小风季，将每日用电划分为峰、谷、平时段。大风季（1-5月、9-12月）峰时段4小时:17:00-21:00，平时段11小时:4:00-10:00、15:00-17:00、21:00-24:00，谷时段9小时:0:00-4:00、10:00-15:00。小风季（6-8月）峰时段6小时:5:00-7:00、17:00-21:00，平时段13小时:7:00-10:00、15:00-17:00、21:00-次日5:00，谷时段5小时:10:00-15:00。大风季峰平谷交易价格比为1.48:1:0.79，平段价格为平时段平均交易价格，峰段在平段价格的基础上上浮48%，谷段在平段价格的基础上下浮21%。小风季峰平谷交易价格比为1.48:1:0.47，平段价格为平时段平均交易价格，峰段在平段价格的基础上上浮48%，谷段在平段价格的基础上下浮53%。</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -127,22 +137,31 @@
     <t>制氢潜力</t>
   </si>
   <si>
+    <t>该地区制氢潜力优秀。</t>
+  </si>
+  <si>
     <t>用能政策</t>
   </si>
   <si>
+    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案。</t>
+  </si>
+  <si>
     <t>若无相关资料，填空格</t>
   </si>
   <si>
     <t>地热资源评价</t>
   </si>
   <si>
+    <t>达茂旗属于夏热冬冷气候区。</t>
+  </si>
+  <si>
     <t>若不适用地热，填无</t>
   </si>
   <si>
     <t>卖电许可</t>
   </si>
   <si>
-    <t>允许</t>
+    <t>不允许</t>
   </si>
   <si>
     <t>允许/不允许</t>
@@ -160,6 +179,9 @@
     <t>用能方案描述</t>
   </si>
   <si>
+    <t>计划在达茂旗零碳博物馆周边建设零碳分布式智慧能源中心，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行，打造零碳产业园区示范项目，再逐步推广。</t>
+  </si>
+  <si>
     <t>是否用氢</t>
   </si>
   <si>
@@ -172,12 +194,18 @@
     <t>城市名称</t>
   </si>
   <si>
+    <t>达尔罕茂明安联合旗</t>
+  </si>
+  <si>
     <t>城市文字中温度输入数字不需要加单位，默认摄氏度</t>
   </si>
   <si>
     <t>城市描述</t>
   </si>
   <si>
+    <t>达尔罕茂明安联合旗是中华人民共和国内蒙古自治区包头市下辖旗，简称“达茂旗”，地处中国北疆，是内蒙古自治区19个边境旗（市）和23个牧业旗之一，距呼和浩特、包头市分别为150公里和160公里，北与蒙古国东戈壁省接壤，1996年1月由原乌兰察布盟划归包头市管辖，成为包头唯一的边境旗县。行政区域面积为17410平方千米，辖7镇1苏木1个工业园区。</t>
+  </si>
+  <si>
     <t>地理位置、气候特点等</t>
   </si>
   <si>
@@ -193,218 +221,23 @@
     <t>气候描述</t>
   </si>
   <si>
+    <t xml:space="preserve">达尔罕茂明安联合旗地处中温带，又深居内陆腹地，大陆性气候特征十分显著，属中温带半干旱大陆性气候。 </t>
+  </si>
+  <si>
     <t>如“宣恩县地处武陵山和齐跃山的交接部位，属中亚热带季风湿润型山地气候。”</t>
   </si>
   <si>
     <t>气候分区</t>
   </si>
   <si>
+    <t>中温带</t>
+  </si>
+  <si>
     <t>采暖供冷期描述</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不带主语</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，如“每年采暖期3个月...”</t>
-    </r>
-  </si>
-  <si>
-    <t>所在省份</t>
-  </si>
-  <si>
-    <t>地理位置：</t>
-  </si>
-  <si>
-    <t>冬季大气压力：</t>
-  </si>
-  <si>
-    <t>夏季大气压力：</t>
-  </si>
-  <si>
-    <t>冬季室外采暖计算温度：</t>
-  </si>
-  <si>
-    <t>冬季空气调节室外计算相对湿度：</t>
-  </si>
-  <si>
-    <t>冬季空气调节室外计算温度：</t>
-  </si>
-  <si>
-    <t>夏季空调室外计算干球温度：</t>
-  </si>
-  <si>
-    <t>夏季空调室外计算湿球温度：</t>
-  </si>
-  <si>
-    <t>冬季通风室外平均风速：</t>
-  </si>
-  <si>
-    <t>夏季通风室外平均风速：</t>
-  </si>
-  <si>
-    <t>麻城石材循环经济产业园</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中部(麻城)石材产业园开发有限公司是麻城市政府重点招商引资项目，2013年入驻麻城，采取以商招商方式，承建：中部（麻城）石材循环经济产业园，2014年省发改委重点建设项目。该项目由麻城市政府委托湖北华建石材工艺有限公司整体开发，中国民生银行参股，由该公司进行统一规划，统一招商、统一推广、统一管理。
-</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>占地2.5万亩，目前建成1.5万亩。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>园区东依</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>白鸭山，西至麻白公路，南临麻溪河，北达塘凌公路</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>工业用电：谷时用电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/kWh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，峰时用电</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/kWh</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前年用电量13-16亿度，预估未来3-5年，每年用电量增长20%。目前由麻城火电厂、大电网供电，周围有3个变电站。目前没有集中供热供冷，但有供热供冷需求。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>中部（麻城）石材循环经济产业园区，因园区太大、整体能耗太高，相当于一个小型的城区。计划在产业园里选取一块有代表意义的厂区先建立示范区，建设零碳分布式智慧能源中心，建设绿色氢水-循环分布式能源站，建立包括氢能燃料电池、储水、储氢、空调机组等供能系统，为发电侧提供存储及输出管理，实现氢、电、冷、热、可再生等多种能源交互、人-机-物三元融合、供需随机匹配与协同优化以及绿色零碳运行，打造零碳产业园区示范项目，再逐步推广。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻城市</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻城市，湖北省辖县级市，由黄冈市代管。地处湖北省东北部，黄冈市北部，长江中游北岸大别山中段南麓，鄂豫皖三省交界处。 武汉城市圈重要组成部分。麻城版图面积3747平方公里，辖19个乡镇办、1个省级经济开发区和1个国家级湿地公园。</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻城气候兼南方和北方的某些特点，为南北兼有的气候特征，属亚热带大陆性湿润季风气候，江淮小气候区，山区、丘陵、平原各异。</t>
-  </si>
-  <si>
-    <t>亚热带</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>每年采暖期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
+      <t>每年采暖期6.5</t>
     </r>
     <r>
       <rPr>
@@ -423,7 +256,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>12</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -442,7 +275,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>15</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -459,10 +292,11 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="1"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -493,29 +327,19 @@
       </rPr>
       <t>日）。</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1019.5hPa</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>998.8hPa</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>北纬3</t>
-    </r>
-    <r>
-      <rPr>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>1</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不带主语</t>
     </r>
     <r>
       <rPr>
@@ -524,8 +348,41 @@
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-      </rPr>
-      <t>°</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如“每年采暖期3个月...”</t>
+    </r>
+  </si>
+  <si>
+    <t>所在省份</t>
+  </si>
+  <si>
+    <t>内蒙古自治区</t>
+  </si>
+  <si>
+    <t>地理位置：</t>
+  </si>
+  <si>
+    <t>北纬40°40′，东经109°51′</t>
+  </si>
+  <si>
+    <t>冬季大气压力：</t>
+  </si>
+  <si>
+    <t>901.2hPa</t>
+  </si>
+  <si>
+    <t>夏季大气压力：</t>
+  </si>
+  <si>
+    <t>889.1hPa</t>
+  </si>
+  <si>
+    <t>冬季室外采暖计算温度：</t>
+  </si>
+  <si>
+    <r>
+      <t>-16.6</t>
     </r>
     <r>
       <rPr>
@@ -535,7 +392,24 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>11</t>
+      <t>℃</t>
+    </r>
+  </si>
+  <si>
+    <t>冬季空气调节室外计算相对湿度：</t>
+  </si>
+  <si>
+    <t>冬季空气调节室外计算温度：</t>
+  </si>
+  <si>
+    <t>-19.7℃</t>
+  </si>
+  <si>
+    <t>夏季空调室外计算干球温度：</t>
+  </si>
+  <si>
+    <r>
+      <t>31.7</t>
     </r>
     <r>
       <rPr>
@@ -545,7 +419,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>′，东经</t>
+      <t>℃</t>
+    </r>
+  </si>
+  <si>
+    <t>夏季空调室外计算湿球温度：</t>
+  </si>
+  <si>
+    <r>
+      <t>20.9</t>
     </r>
     <r>
       <rPr>
@@ -555,126 +437,39 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>°</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1′</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>℃</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-2.5℃</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>35.5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.1m/s</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0m/s</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021年7月23日，国家发展改革委、国家能源局正式联合发布《关于加快推动新型储能发展的指导意见》，氢能被明确纳入“新型储能”，意味着氢储能正在得到越来越多的关注和认可。氢能被广泛视为21世纪终极常规清洁能源，具有零污染物排放、零碳排放、水-水可再生循环等特点。近年来，氢能制备和储运技术的快速发展，为氢能在能源供需系统的广泛应用奠定了基础。氢能与可再生能源、传统能源系统的有效结合，已成为当前能源系统节能优化和清洁化的重要前沿技术之一，在未来能源转型升级的过程中，氢能将扮演重要角色。对于风力发电、光伏发电之类的不稳定能源，氢储能则是一个非常理想的解决方案</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>该地区制氢潜力优秀</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬季通风室外平均风速：</t>
+  </si>
+  <si>
+    <t>2.4m/s</t>
+  </si>
+  <si>
+    <t>夏季通风室外平均风速：</t>
+  </si>
+  <si>
+    <t>2.6m/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">占地4000平米，建筑面积12000平米。 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>本项目计划为达茂旗零碳博物馆及周边办公建筑与住宅供能，其中零碳博物馆建筑面积为12000平方米，办公建筑48000平方米，住宅面积70000平方米，上述区域仿真模拟年电热负荷总量为1050万千瓦时。</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>达茂旗零碳博物馆能源站</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -689,6 +484,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -704,6 +506,21 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -729,6 +546,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,6 +577,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -761,6 +593,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -769,13 +608,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -784,28 +616,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -814,39 +624,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -871,7 +653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,73 +666,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,184 +1047,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="59.625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="9" style="12"/>
-    <col min="5" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="26.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="9" style="15"/>
+    <col min="5" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="96.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" ht="97" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="47.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="47" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="25"/>
-    </row>
-    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="C5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25"/>
-    </row>
-    <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="60">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="26"/>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="160">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" ht="16">
+      <c r="A10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="16">
+      <c r="A11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="16">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="105">
+      <c r="A12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="C12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="96">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="114" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25"/>
+      <c r="B13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D14"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1447,121 +1235,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="65" style="5" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="15.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="65" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="105" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="8">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="8">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="8">
-        <v>-12</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="27"/>
-    </row>
-    <row r="6" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+    <row r="1" spans="1:4" ht="16">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="27"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="105" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="16">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="11">
+        <v>7.2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="16">
+      <c r="A4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" ht="16">
+      <c r="A5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="11">
+        <v>-31.4</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" ht="89" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="16">
+      <c r="A7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="53" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" ht="16">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D1:D9"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1572,98 +1360,98 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="70.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.875" style="1"/>
+    <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="19" customHeight="1">
+      <c r="A7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
